--- a/excel_files/3.7.2.xlsx
+++ b/excel_files/3.7.2.xlsx
@@ -10706,7 +10706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
@@ -10788,6 +10790,9 @@
       <c r="P3" s="29">
         <v>2019</v>
       </c>
+      <c r="Q3" s="29">
+        <v>2020</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="31" t="s">
@@ -10838,6 +10843,9 @@
       <c r="P4" s="56">
         <v>37.700000000000003</v>
       </c>
+      <c r="Q4" s="56">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="32" t="s">
@@ -10887,6 +10895,9 @@
       </c>
       <c r="P5" s="57">
         <v>35.700000000000003</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>31.2</v>
       </c>
       <c r="V5" s="18"/>
     </row>
@@ -10939,6 +10950,9 @@
       <c r="P6" s="57">
         <v>38</v>
       </c>
+      <c r="Q6" s="57">
+        <v>35.700000000000003</v>
+      </c>
       <c r="V6" s="18"/>
     </row>
     <row r="7" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -10990,6 +11004,9 @@
       <c r="P7" s="57">
         <v>25.3</v>
       </c>
+      <c r="Q7" s="57">
+        <v>21.3</v>
+      </c>
       <c r="V7" s="18"/>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11041,6 +11058,9 @@
       <c r="P8" s="57">
         <v>20.8</v>
       </c>
+      <c r="Q8" s="57">
+        <v>20.100000000000001</v>
+      </c>
       <c r="V8" s="18"/>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11092,6 +11112,9 @@
       <c r="P9" s="57">
         <v>37.9</v>
       </c>
+      <c r="Q9" s="57">
+        <v>35.6</v>
+      </c>
       <c r="V9" s="18"/>
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11143,6 +11166,9 @@
       <c r="P10" s="57">
         <v>34.1</v>
       </c>
+      <c r="Q10" s="57">
+        <v>27.2</v>
+      </c>
       <c r="V10" s="18"/>
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11194,6 +11220,9 @@
       <c r="P11" s="57">
         <v>51</v>
       </c>
+      <c r="Q11" s="57">
+        <v>44.5</v>
+      </c>
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11245,6 +11274,9 @@
       <c r="P12" s="57">
         <v>28.9</v>
       </c>
+      <c r="Q12" s="57">
+        <v>22.2</v>
+      </c>
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -11295,6 +11327,9 @@
       </c>
       <c r="P13" s="55">
         <v>77</v>
+      </c>
+      <c r="Q13" s="55">
+        <v>63.7</v>
       </c>
       <c r="V13" s="18"/>
     </row>

--- a/excel_files/3.7.2.xlsx
+++ b/excel_files/3.7.2.xlsx
@@ -334,7 +334,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,6 +471,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10707,7 +10708,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10793,6 +10794,9 @@
       <c r="Q3" s="29">
         <v>2020</v>
       </c>
+      <c r="R3" s="29">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="31" t="s">
@@ -10846,6 +10850,9 @@
       <c r="Q4" s="56">
         <v>33.4</v>
       </c>
+      <c r="R4" s="58">
+        <v>29.684644672533683</v>
+      </c>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="32" t="s">
@@ -10898,6 +10905,9 @@
       </c>
       <c r="Q5" s="57">
         <v>31.2</v>
+      </c>
+      <c r="R5" s="57">
+        <v>24.273948851322064</v>
       </c>
       <c r="V5" s="18"/>
     </row>
@@ -10953,6 +10963,9 @@
       <c r="Q6" s="57">
         <v>35.700000000000003</v>
       </c>
+      <c r="R6" s="57">
+        <v>31.170324930508961</v>
+      </c>
       <c r="V6" s="18"/>
     </row>
     <row r="7" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11007,6 +11020,9 @@
       <c r="Q7" s="57">
         <v>21.3</v>
       </c>
+      <c r="R7" s="57">
+        <v>23.773041742118217</v>
+      </c>
       <c r="V7" s="18"/>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11061,6 +11077,9 @@
       <c r="Q8" s="57">
         <v>20.100000000000001</v>
       </c>
+      <c r="R8" s="57">
+        <v>17.885950761029672</v>
+      </c>
       <c r="V8" s="18"/>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11115,6 +11134,9 @@
       <c r="Q9" s="57">
         <v>35.6</v>
       </c>
+      <c r="R9" s="57">
+        <v>27.236016839934702</v>
+      </c>
       <c r="V9" s="18"/>
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11169,6 +11191,9 @@
       <c r="Q10" s="57">
         <v>27.2</v>
       </c>
+      <c r="R10" s="57">
+        <v>24.736924768336735</v>
+      </c>
       <c r="V10" s="18"/>
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11223,6 +11248,9 @@
       <c r="Q11" s="57">
         <v>44.5</v>
       </c>
+      <c r="R11" s="57">
+        <v>38.926974664679584</v>
+      </c>
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -11277,6 +11305,9 @@
       <c r="Q12" s="57">
         <v>22.2</v>
       </c>
+      <c r="R12" s="57">
+        <v>23.305151831797598</v>
+      </c>
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -11330,6 +11361,9 @@
       </c>
       <c r="Q13" s="55">
         <v>63.7</v>
+      </c>
+      <c r="R13" s="55">
+        <v>69.352892024881626</v>
       </c>
       <c r="V13" s="18"/>
     </row>

--- a/excel_files/3.7.2.xlsx
+++ b/excel_files/3.7.2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -145,6 +145,24 @@
   <si>
     <t xml:space="preserve">3.7.2 1000 аялга деп алганда ушул жаштагы топтогу өспүрүмдөр арасында туулгандар (15 жаштан 19 жашка чейинки жаштагылар) </t>
   </si>
+  <si>
+    <t>Шаар турагы</t>
+  </si>
+  <si>
+    <t>Городские поселения</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Айыл жергеси</t>
+  </si>
+  <si>
+    <t>Сельская местность</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +290,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -334,7 +359,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,6 +497,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10705,10 +10736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10797,6 +10828,9 @@
       <c r="R3" s="29">
         <v>2021</v>
       </c>
+      <c r="S3" s="29">
+        <v>2022</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="31" t="s">
@@ -10853,549 +10887,659 @@
       <c r="R4" s="58">
         <v>29.684644672533683</v>
       </c>
+      <c r="S4" s="58">
+        <v>30.042887362716971</v>
+      </c>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>14</v>
+      <c r="A5" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12">
-        <v>25.4</v>
-      </c>
-      <c r="E5" s="12">
-        <v>27.2</v>
-      </c>
-      <c r="F5" s="13">
-        <v>30.6</v>
-      </c>
-      <c r="G5" s="14">
-        <v>36.1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="I5" s="16">
-        <v>44.6</v>
-      </c>
-      <c r="J5" s="17">
-        <v>43.2</v>
-      </c>
-      <c r="K5" s="15">
-        <v>43.3</v>
-      </c>
-      <c r="L5" s="15">
-        <v>38.4</v>
-      </c>
-      <c r="M5" s="15">
-        <v>36.5</v>
-      </c>
-      <c r="N5" s="26">
-        <v>31.2</v>
-      </c>
-      <c r="O5" s="26">
-        <v>30.2</v>
-      </c>
-      <c r="P5" s="57">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q5" s="57">
-        <v>31.2</v>
-      </c>
-      <c r="R5" s="57">
-        <v>24.273948851322064</v>
-      </c>
-      <c r="V5" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11">
+        <v>32.9</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11">
+        <v>45.1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="M5" s="11">
+        <v>37.6</v>
+      </c>
+      <c r="N5" s="11">
+        <v>35.6</v>
+      </c>
+      <c r="O5" s="11">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P5" s="11">
+        <v>43.1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="R5" s="59">
+        <v>36.9</v>
+      </c>
+      <c r="S5" s="3">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>15</v>
+      <c r="A6" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12">
-        <v>30.1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>33</v>
-      </c>
-      <c r="F6" s="13">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="G6" s="19">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="H6" s="15">
-        <v>47.6</v>
-      </c>
-      <c r="I6" s="16">
-        <v>45.3</v>
-      </c>
-      <c r="J6" s="17">
-        <v>44.8</v>
-      </c>
-      <c r="K6" s="15">
-        <v>47.7</v>
-      </c>
-      <c r="L6" s="15">
-        <v>53.5</v>
-      </c>
-      <c r="M6" s="15">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="N6" s="26">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
         <v>34.700000000000003</v>
       </c>
-      <c r="O6" s="26">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="P6" s="57">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="57">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="R6" s="57">
-        <v>31.170324930508961</v>
-      </c>
-      <c r="V6" s="18"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11">
+        <v>42.6</v>
+      </c>
+      <c r="L6" s="11">
+        <v>43.3</v>
+      </c>
+      <c r="M6" s="11">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="N6" s="11">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O6" s="11">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="P6" s="11">
+        <v>35.6</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>31.9</v>
+      </c>
+      <c r="R6" s="59">
+        <v>26.6</v>
+      </c>
+      <c r="S6" s="3">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="7" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="21">
-        <v>27.5</v>
-      </c>
-      <c r="E7" s="21">
-        <v>27.7</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12">
+        <v>25.4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>27.2</v>
       </c>
       <c r="F7" s="13">
-        <v>30</v>
-      </c>
-      <c r="G7" s="19">
+        <v>30.6</v>
+      </c>
+      <c r="G7" s="14">
+        <v>36.1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I7" s="16">
+        <v>44.6</v>
+      </c>
+      <c r="J7" s="17">
+        <v>43.2</v>
+      </c>
+      <c r="K7" s="15">
+        <v>43.3</v>
+      </c>
+      <c r="L7" s="15">
+        <v>38.4</v>
+      </c>
+      <c r="M7" s="15">
+        <v>36.5</v>
+      </c>
+      <c r="N7" s="26">
+        <v>31.2</v>
+      </c>
+      <c r="O7" s="26">
         <v>30.2</v>
       </c>
-      <c r="H7" s="15">
-        <v>31.8</v>
-      </c>
-      <c r="I7" s="16">
-        <v>31.8</v>
-      </c>
-      <c r="J7" s="17">
-        <v>31</v>
-      </c>
-      <c r="K7" s="15">
-        <v>31.8</v>
-      </c>
-      <c r="L7" s="15">
-        <v>45.4</v>
-      </c>
-      <c r="M7" s="15">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="N7" s="26">
-        <v>25.5</v>
-      </c>
-      <c r="O7" s="26">
-        <v>28.8</v>
-      </c>
       <c r="P7" s="57">
-        <v>25.3</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Q7" s="57">
-        <v>21.3</v>
+        <v>31.2</v>
       </c>
       <c r="R7" s="57">
-        <v>23.773041742118217</v>
+        <v>24.273948851322064</v>
+      </c>
+      <c r="S7" s="60">
+        <v>26.09501942776404</v>
       </c>
       <c r="V7" s="18"/>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="12">
-        <v>27.1</v>
+        <v>30.1</v>
       </c>
       <c r="E8" s="12">
-        <v>23.1</v>
+        <v>33</v>
       </c>
       <c r="F8" s="13">
-        <v>30.4</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G8" s="19">
-        <v>29.7</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H8" s="15">
-        <v>34.299999999999997</v>
+        <v>47.6</v>
       </c>
       <c r="I8" s="16">
-        <v>33</v>
+        <v>45.3</v>
       </c>
       <c r="J8" s="17">
-        <v>27.7</v>
+        <v>44.8</v>
       </c>
       <c r="K8" s="15">
-        <v>29.2</v>
+        <v>47.7</v>
       </c>
       <c r="L8" s="15">
-        <v>30.3</v>
+        <v>53.5</v>
       </c>
       <c r="M8" s="15">
-        <v>29.1</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="N8" s="26">
-        <v>20.2</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="O8" s="26">
-        <v>22.7</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="P8" s="57">
-        <v>20.8</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="57">
-        <v>20.100000000000001</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="R8" s="57">
-        <v>17.885950761029672</v>
+        <v>31.170324930508961</v>
+      </c>
+      <c r="S8" s="60">
+        <v>34.836180341640997</v>
       </c>
       <c r="V8" s="18"/>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12">
-        <v>27.1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>27.1</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="21">
+        <v>27.5</v>
+      </c>
+      <c r="E9" s="21">
+        <v>27.7</v>
       </c>
       <c r="F9" s="13">
-        <v>30.4</v>
-      </c>
-      <c r="G9" s="22">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="G9" s="19">
+        <v>30.2</v>
       </c>
       <c r="H9" s="15">
-        <v>43.2</v>
+        <v>31.8</v>
       </c>
       <c r="I9" s="16">
-        <v>44</v>
+        <v>31.8</v>
       </c>
       <c r="J9" s="17">
-        <v>43.4</v>
+        <v>31</v>
       </c>
       <c r="K9" s="15">
-        <v>45.8</v>
+        <v>31.8</v>
       </c>
       <c r="L9" s="15">
-        <v>72.3</v>
+        <v>45.4</v>
       </c>
       <c r="M9" s="15">
-        <v>41.6</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N9" s="26">
-        <v>38.5</v>
+        <v>25.5</v>
       </c>
       <c r="O9" s="26">
-        <v>35.200000000000003</v>
+        <v>28.8</v>
       </c>
       <c r="P9" s="57">
-        <v>37.9</v>
+        <v>25.3</v>
       </c>
       <c r="Q9" s="57">
-        <v>35.6</v>
+        <v>21.3</v>
       </c>
       <c r="R9" s="57">
-        <v>27.236016839934702</v>
+        <v>23.773041742118217</v>
+      </c>
+      <c r="S9" s="60">
+        <v>15.761291994127298</v>
       </c>
       <c r="V9" s="18"/>
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="12">
-        <v>39.9</v>
+        <v>27.1</v>
       </c>
       <c r="E10" s="12">
-        <v>38.9</v>
+        <v>23.1</v>
       </c>
       <c r="F10" s="13">
-        <v>46.4</v>
+        <v>30.4</v>
       </c>
       <c r="G10" s="19">
-        <v>48.5</v>
+        <v>29.7</v>
       </c>
       <c r="H10" s="15">
-        <v>59.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="I10" s="16">
-        <v>58.8</v>
+        <v>33</v>
       </c>
       <c r="J10" s="17">
-        <v>61</v>
+        <v>27.7</v>
       </c>
       <c r="K10" s="15">
-        <v>58.2</v>
+        <v>29.2</v>
       </c>
       <c r="L10" s="15">
-        <v>36.4</v>
+        <v>30.3</v>
       </c>
       <c r="M10" s="15">
-        <v>41.9</v>
+        <v>29.1</v>
       </c>
       <c r="N10" s="26">
-        <v>34.9</v>
+        <v>20.2</v>
       </c>
       <c r="O10" s="26">
-        <v>37.1</v>
+        <v>22.7</v>
       </c>
       <c r="P10" s="57">
-        <v>34.1</v>
+        <v>20.8</v>
       </c>
       <c r="Q10" s="57">
-        <v>27.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="R10" s="57">
-        <v>24.736924768336735</v>
+        <v>17.885950761029672</v>
+      </c>
+      <c r="S10" s="60">
+        <v>12.708498808578236</v>
       </c>
       <c r="V10" s="18"/>
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="12">
-        <v>38.4</v>
+        <v>27.1</v>
       </c>
       <c r="E11" s="12">
-        <v>40.1</v>
+        <v>27.1</v>
       </c>
       <c r="F11" s="13">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="G11" s="19">
+        <v>30.4</v>
+      </c>
+      <c r="G11" s="22">
+        <v>33</v>
+      </c>
+      <c r="H11" s="15">
+        <v>43.2</v>
+      </c>
+      <c r="I11" s="16">
         <v>44</v>
       </c>
-      <c r="H11" s="15">
-        <v>49.1</v>
-      </c>
-      <c r="I11" s="16">
-        <v>50.3</v>
-      </c>
       <c r="J11" s="17">
-        <v>52</v>
+        <v>43.4</v>
       </c>
       <c r="K11" s="15">
-        <v>50.8</v>
+        <v>45.8</v>
       </c>
       <c r="L11" s="15">
-        <v>59.7</v>
+        <v>72.3</v>
       </c>
       <c r="M11" s="15">
-        <v>47.8</v>
+        <v>41.6</v>
       </c>
       <c r="N11" s="26">
-        <v>46.4</v>
+        <v>38.5</v>
       </c>
       <c r="O11" s="26">
-        <v>52.1</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="P11" s="57">
-        <v>51</v>
+        <v>37.9</v>
       </c>
       <c r="Q11" s="57">
-        <v>44.5</v>
+        <v>35.6</v>
       </c>
       <c r="R11" s="57">
-        <v>38.926974664679584</v>
+        <v>27.236016839934702</v>
+      </c>
+      <c r="S11" s="60">
+        <v>36.667303251792568</v>
       </c>
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>21</v>
+      <c r="A12" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="12">
-        <v>25.9</v>
+        <v>39.9</v>
       </c>
       <c r="E12" s="12">
-        <v>24.8</v>
+        <v>38.9</v>
       </c>
       <c r="F12" s="13">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G12" s="23">
-        <v>20.399999999999999</v>
+        <v>46.4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>48.5</v>
       </c>
       <c r="H12" s="15">
-        <v>25.3</v>
+        <v>59.3</v>
       </c>
       <c r="I12" s="16">
-        <v>26</v>
+        <v>58.8</v>
       </c>
       <c r="J12" s="17">
-        <v>26.6</v>
+        <v>61</v>
       </c>
       <c r="K12" s="15">
-        <v>26.5</v>
+        <v>58.2</v>
       </c>
       <c r="L12" s="15">
-        <v>22.1</v>
+        <v>36.4</v>
       </c>
       <c r="M12" s="15">
-        <v>21.4</v>
+        <v>41.9</v>
       </c>
       <c r="N12" s="26">
-        <v>17.399999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="O12" s="26">
-        <v>24.3</v>
+        <v>37.1</v>
       </c>
       <c r="P12" s="57">
-        <v>28.9</v>
+        <v>34.1</v>
       </c>
       <c r="Q12" s="57">
-        <v>22.2</v>
+        <v>27.2</v>
       </c>
       <c r="R12" s="57">
-        <v>23.305151831797598</v>
+        <v>24.736924768336735</v>
+      </c>
+      <c r="S12" s="60">
+        <v>21.147798742138363</v>
       </c>
       <c r="V12" s="18"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="40">
-        <v>24.2</v>
-      </c>
-      <c r="E13" s="40">
-        <v>26</v>
-      </c>
-      <c r="F13" s="41">
-        <v>23.9</v>
-      </c>
-      <c r="G13" s="42">
-        <v>27</v>
-      </c>
-      <c r="H13" s="43">
-        <v>36.1</v>
-      </c>
-      <c r="I13" s="44">
-        <v>43.9</v>
-      </c>
-      <c r="J13" s="45">
-        <v>46.7</v>
-      </c>
-      <c r="K13" s="43">
-        <v>54.9</v>
-      </c>
-      <c r="L13" s="43">
-        <v>52.8</v>
-      </c>
-      <c r="M13" s="43">
-        <v>52.6</v>
-      </c>
-      <c r="N13" s="46">
-        <v>51.6</v>
-      </c>
-      <c r="O13" s="55">
-        <v>65</v>
-      </c>
-      <c r="P13" s="55">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="55">
-        <v>63.7</v>
-      </c>
-      <c r="R13" s="55">
-        <v>69.352892024881626</v>
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="12">
+        <v>38.4</v>
+      </c>
+      <c r="E13" s="12">
+        <v>40.1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G13" s="19">
+        <v>44</v>
+      </c>
+      <c r="H13" s="15">
+        <v>49.1</v>
+      </c>
+      <c r="I13" s="16">
+        <v>50.3</v>
+      </c>
+      <c r="J13" s="17">
+        <v>52</v>
+      </c>
+      <c r="K13" s="15">
+        <v>50.8</v>
+      </c>
+      <c r="L13" s="15">
+        <v>59.7</v>
+      </c>
+      <c r="M13" s="15">
+        <v>47.8</v>
+      </c>
+      <c r="N13" s="26">
+        <v>46.4</v>
+      </c>
+      <c r="O13" s="26">
+        <v>52.1</v>
+      </c>
+      <c r="P13" s="57">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="57">
+        <v>44.5</v>
+      </c>
+      <c r="R13" s="57">
+        <v>38.926974664679584</v>
+      </c>
+      <c r="S13" s="60">
+        <v>33.139030137665877</v>
       </c>
       <c r="V13" s="18"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" ht="12">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="50"/>
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12">
+        <v>25.9</v>
+      </c>
+      <c r="E14" s="12">
+        <v>24.8</v>
+      </c>
+      <c r="F14" s="13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G14" s="23">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H14" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="I14" s="16">
+        <v>26</v>
+      </c>
+      <c r="J14" s="17">
+        <v>26.6</v>
+      </c>
+      <c r="K14" s="15">
+        <v>26.5</v>
+      </c>
+      <c r="L14" s="15">
+        <v>22.1</v>
+      </c>
+      <c r="M14" s="15">
+        <v>21.4</v>
+      </c>
+      <c r="N14" s="26">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O14" s="26">
+        <v>24.3</v>
+      </c>
+      <c r="P14" s="57">
+        <v>28.9</v>
+      </c>
+      <c r="Q14" s="57">
+        <v>22.2</v>
+      </c>
+      <c r="R14" s="57">
+        <v>23.305151831797598</v>
+      </c>
+      <c r="S14" s="61">
+        <v>22.34784446322908</v>
+      </c>
+      <c r="V14" s="18"/>
     </row>
-    <row r="15" spans="1:22">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="40">
+        <v>24.2</v>
+      </c>
+      <c r="E15" s="40">
+        <v>26</v>
+      </c>
+      <c r="F15" s="41">
+        <v>23.9</v>
+      </c>
+      <c r="G15" s="42">
+        <v>27</v>
+      </c>
+      <c r="H15" s="43">
+        <v>36.1</v>
+      </c>
+      <c r="I15" s="44">
+        <v>43.9</v>
+      </c>
+      <c r="J15" s="45">
+        <v>46.7</v>
+      </c>
+      <c r="K15" s="43">
+        <v>54.9</v>
+      </c>
+      <c r="L15" s="43">
+        <v>52.8</v>
+      </c>
+      <c r="M15" s="43">
+        <v>52.6</v>
+      </c>
+      <c r="N15" s="46">
+        <v>51.6</v>
+      </c>
+      <c r="O15" s="55">
+        <v>65</v>
+      </c>
+      <c r="P15" s="55">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="55">
+        <v>63.7</v>
+      </c>
+      <c r="R15" s="55">
+        <v>69.352892024881626</v>
+      </c>
+      <c r="S15" s="62">
+        <v>51.037459963793346</v>
+      </c>
+      <c r="V15" s="18"/>
     </row>
-    <row r="16" spans="1:22">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="12">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="24"/>
@@ -11425,6 +11569,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
     </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel_files/3.7.2.xlsx
+++ b/excel_files/3.7.2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -163,6 +163,24 @@
   <si>
     <t>Rural</t>
   </si>
+  <si>
+    <t>Жерлери</t>
+  </si>
+  <si>
+    <t>Местность</t>
+  </si>
+  <si>
+    <t>Urbanisation</t>
+  </si>
+  <si>
+    <t>Аймак</t>
+  </si>
+  <si>
+    <t>Область</t>
+  </si>
+  <si>
+    <t>Terrytory</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +315,53 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +424,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,6 +568,34 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10736,11 +10829,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
@@ -10750,7 +10841,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" ht="60" customHeight="1">
+    <row r="1" spans="1:22" customFormat="1" ht="57.75" customHeight="1">
       <c r="A1" s="53" t="s">
         <v>35</v>
       </c>
@@ -10772,7 +10863,7 @@
       <c r="M1" s="51"/>
       <c r="N1" s="51"/>
     </row>
-    <row r="2" spans="1:22" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:22" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:22" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
@@ -10830,6 +10921,9 @@
       </c>
       <c r="S3" s="29">
         <v>2022</v>
+      </c>
+      <c r="T3" s="29">
+        <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
@@ -10890,699 +10984,787 @@
       <c r="S4" s="58">
         <v>30.042887362716971</v>
       </c>
+      <c r="T4" s="58">
+        <v>28.85</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
-        <v>32.9</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11">
-        <v>45.1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M5" s="11">
-        <v>37.6</v>
-      </c>
-      <c r="N5" s="11">
-        <v>35.6</v>
-      </c>
-      <c r="O5" s="11">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="P5" s="11">
-        <v>43.1</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="R5" s="59">
-        <v>36.9</v>
-      </c>
-      <c r="S5" s="3">
-        <v>31.1</v>
-      </c>
+    <row r="5" spans="1:22" s="67" customFormat="1" ht="15">
+      <c r="A5" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="12">
+        <v>23.732590529247911</v>
+      </c>
+      <c r="E6" s="12">
+        <v>24.367891934493535</v>
+      </c>
+      <c r="F6" s="13">
+        <v>27.880113592754626</v>
+      </c>
+      <c r="G6" s="14">
+        <v>32.913553895410885</v>
+      </c>
+      <c r="H6" s="15">
+        <v>39.05806586125815</v>
+      </c>
+      <c r="I6" s="16">
+        <v>43.933106378749102</v>
+      </c>
+      <c r="J6" s="17">
+        <v>45.236454418973565</v>
+      </c>
       <c r="K6" s="11">
-        <v>42.6</v>
+        <v>45.1</v>
       </c>
       <c r="L6" s="11">
-        <v>43.3</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="M6" s="11">
-        <v>38.299999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="N6" s="11">
-        <v>33.200000000000003</v>
+        <v>35.6</v>
       </c>
       <c r="O6" s="11">
-        <v>34.799999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="P6" s="11">
-        <v>35.6</v>
+        <v>43.1</v>
       </c>
       <c r="Q6" s="11">
-        <v>31.9</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="R6" s="59">
-        <v>26.6</v>
+        <v>36.9</v>
       </c>
       <c r="S6" s="3">
-        <v>29.5</v>
+        <v>31.1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>21.49</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>14</v>
+      <c r="A7" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="12">
-        <v>25.4</v>
+        <v>30.733214817264763</v>
       </c>
       <c r="E7" s="12">
-        <v>27.2</v>
+        <v>31.177473779734122</v>
       </c>
       <c r="F7" s="13">
-        <v>30.6</v>
-      </c>
-      <c r="G7" s="14">
-        <v>36.1</v>
+        <v>33.000910369941238</v>
+      </c>
+      <c r="G7" s="19">
+        <v>34.727967637310485</v>
       </c>
       <c r="H7" s="15">
-        <v>40.200000000000003</v>
+        <v>42.433781034604912</v>
       </c>
       <c r="I7" s="16">
-        <v>44.6</v>
+        <v>41.283562941014758</v>
       </c>
       <c r="J7" s="17">
-        <v>43.2</v>
-      </c>
-      <c r="K7" s="15">
+        <v>40.617131725917254</v>
+      </c>
+      <c r="K7" s="11">
+        <v>42.6</v>
+      </c>
+      <c r="L7" s="11">
         <v>43.3</v>
       </c>
-      <c r="L7" s="15">
-        <v>38.4</v>
-      </c>
-      <c r="M7" s="15">
-        <v>36.5</v>
-      </c>
-      <c r="N7" s="26">
-        <v>31.2</v>
-      </c>
-      <c r="O7" s="26">
-        <v>30.2</v>
-      </c>
-      <c r="P7" s="57">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="Q7" s="57">
-        <v>31.2</v>
-      </c>
-      <c r="R7" s="57">
-        <v>24.273948851322064</v>
-      </c>
-      <c r="S7" s="60">
-        <v>26.09501942776404</v>
-      </c>
-      <c r="V7" s="18"/>
+      <c r="M7" s="11">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="N7" s="11">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O7" s="11">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="P7" s="11">
+        <v>35.6</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>31.9</v>
+      </c>
+      <c r="R7" s="59">
+        <v>26.6</v>
+      </c>
+      <c r="S7" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="T7" s="3">
+        <v>32.29</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="12">
-        <v>30.1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>33</v>
-      </c>
-      <c r="F8" s="13">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="G8" s="19">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="H8" s="15">
-        <v>47.6</v>
-      </c>
-      <c r="I8" s="16">
-        <v>45.3</v>
-      </c>
-      <c r="J8" s="17">
-        <v>44.8</v>
-      </c>
-      <c r="K8" s="15">
-        <v>47.7</v>
-      </c>
-      <c r="L8" s="15">
-        <v>53.5</v>
-      </c>
-      <c r="M8" s="15">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="N8" s="26">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="O8" s="26">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="P8" s="57">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="57">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="R8" s="57">
-        <v>31.170324930508961</v>
-      </c>
-      <c r="S8" s="60">
-        <v>34.836180341640997</v>
-      </c>
-      <c r="V8" s="18"/>
+    <row r="8" spans="1:22" customFormat="1" ht="15">
+      <c r="A8" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="21">
-        <v>27.5</v>
-      </c>
-      <c r="E9" s="21">
-        <v>27.7</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12">
+        <v>25.4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>27.2</v>
       </c>
       <c r="F9" s="13">
-        <v>30</v>
-      </c>
-      <c r="G9" s="19">
+        <v>30.6</v>
+      </c>
+      <c r="G9" s="14">
+        <v>36.1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I9" s="16">
+        <v>44.6</v>
+      </c>
+      <c r="J9" s="17">
+        <v>43.2</v>
+      </c>
+      <c r="K9" s="15">
+        <v>43.3</v>
+      </c>
+      <c r="L9" s="15">
+        <v>38.4</v>
+      </c>
+      <c r="M9" s="15">
+        <v>36.5</v>
+      </c>
+      <c r="N9" s="26">
+        <v>31.2</v>
+      </c>
+      <c r="O9" s="26">
         <v>30.2</v>
       </c>
-      <c r="H9" s="15">
-        <v>31.8</v>
-      </c>
-      <c r="I9" s="16">
-        <v>31.8</v>
-      </c>
-      <c r="J9" s="17">
-        <v>31</v>
-      </c>
-      <c r="K9" s="15">
-        <v>31.8</v>
-      </c>
-      <c r="L9" s="15">
-        <v>45.4</v>
-      </c>
-      <c r="M9" s="15">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="N9" s="26">
-        <v>25.5</v>
-      </c>
-      <c r="O9" s="26">
-        <v>28.8</v>
-      </c>
       <c r="P9" s="57">
-        <v>25.3</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Q9" s="57">
-        <v>21.3</v>
+        <v>31.2</v>
       </c>
       <c r="R9" s="57">
-        <v>23.773041742118217</v>
+        <v>24.273948851322064</v>
       </c>
       <c r="S9" s="60">
-        <v>15.761291994127298</v>
+        <v>26.09501942776404</v>
+      </c>
+      <c r="T9" s="60">
+        <v>28.4</v>
       </c>
       <c r="V9" s="18"/>
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="12">
-        <v>27.1</v>
+        <v>30.1</v>
       </c>
       <c r="E10" s="12">
-        <v>23.1</v>
+        <v>33</v>
       </c>
       <c r="F10" s="13">
-        <v>30.4</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G10" s="19">
-        <v>29.7</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H10" s="15">
-        <v>34.299999999999997</v>
+        <v>47.6</v>
       </c>
       <c r="I10" s="16">
-        <v>33</v>
+        <v>45.3</v>
       </c>
       <c r="J10" s="17">
-        <v>27.7</v>
+        <v>44.8</v>
       </c>
       <c r="K10" s="15">
-        <v>29.2</v>
+        <v>47.7</v>
       </c>
       <c r="L10" s="15">
-        <v>30.3</v>
+        <v>53.5</v>
       </c>
       <c r="M10" s="15">
-        <v>29.1</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="N10" s="26">
-        <v>20.2</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="O10" s="26">
-        <v>22.7</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="P10" s="57">
-        <v>20.8</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="57">
-        <v>20.100000000000001</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="R10" s="57">
-        <v>17.885950761029672</v>
+        <v>31.170324930508961</v>
       </c>
       <c r="S10" s="60">
-        <v>12.708498808578236</v>
+        <v>34.836180341640997</v>
+      </c>
+      <c r="T10" s="60">
+        <v>37.35</v>
       </c>
       <c r="V10" s="18"/>
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="12">
-        <v>27.1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>27.1</v>
+        <v>26</v>
+      </c>
+      <c r="D11" s="21">
+        <v>27.5</v>
+      </c>
+      <c r="E11" s="21">
+        <v>27.7</v>
       </c>
       <c r="F11" s="13">
-        <v>30.4</v>
-      </c>
-      <c r="G11" s="22">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="G11" s="19">
+        <v>30.2</v>
       </c>
       <c r="H11" s="15">
-        <v>43.2</v>
+        <v>31.8</v>
       </c>
       <c r="I11" s="16">
-        <v>44</v>
+        <v>31.8</v>
       </c>
       <c r="J11" s="17">
-        <v>43.4</v>
+        <v>31</v>
       </c>
       <c r="K11" s="15">
-        <v>45.8</v>
+        <v>31.8</v>
       </c>
       <c r="L11" s="15">
-        <v>72.3</v>
+        <v>45.4</v>
       </c>
       <c r="M11" s="15">
-        <v>41.6</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N11" s="26">
-        <v>38.5</v>
+        <v>25.5</v>
       </c>
       <c r="O11" s="26">
-        <v>35.200000000000003</v>
+        <v>28.8</v>
       </c>
       <c r="P11" s="57">
-        <v>37.9</v>
+        <v>25.3</v>
       </c>
       <c r="Q11" s="57">
-        <v>35.6</v>
+        <v>21.3</v>
       </c>
       <c r="R11" s="57">
-        <v>27.236016839934702</v>
+        <v>23.773041742118217</v>
       </c>
       <c r="S11" s="60">
-        <v>36.667303251792568</v>
+        <v>15.761291994127298</v>
+      </c>
+      <c r="T11" s="60">
+        <v>18.71</v>
       </c>
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="12">
-        <v>39.9</v>
+        <v>27.1</v>
       </c>
       <c r="E12" s="12">
-        <v>38.9</v>
+        <v>23.1</v>
       </c>
       <c r="F12" s="13">
-        <v>46.4</v>
+        <v>30.4</v>
       </c>
       <c r="G12" s="19">
-        <v>48.5</v>
+        <v>29.7</v>
       </c>
       <c r="H12" s="15">
-        <v>59.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="I12" s="16">
-        <v>58.8</v>
+        <v>33</v>
       </c>
       <c r="J12" s="17">
-        <v>61</v>
+        <v>27.7</v>
       </c>
       <c r="K12" s="15">
-        <v>58.2</v>
+        <v>29.2</v>
       </c>
       <c r="L12" s="15">
-        <v>36.4</v>
+        <v>30.3</v>
       </c>
       <c r="M12" s="15">
-        <v>41.9</v>
+        <v>29.1</v>
       </c>
       <c r="N12" s="26">
-        <v>34.9</v>
+        <v>20.2</v>
       </c>
       <c r="O12" s="26">
-        <v>37.1</v>
+        <v>22.7</v>
       </c>
       <c r="P12" s="57">
-        <v>34.1</v>
+        <v>20.8</v>
       </c>
       <c r="Q12" s="57">
-        <v>27.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="R12" s="57">
-        <v>24.736924768336735</v>
+        <v>17.885950761029672</v>
       </c>
       <c r="S12" s="60">
-        <v>21.147798742138363</v>
+        <v>12.708498808578236</v>
+      </c>
+      <c r="T12" s="60">
+        <v>19.7</v>
       </c>
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="12">
-        <v>38.4</v>
+        <v>27.1</v>
       </c>
       <c r="E13" s="12">
-        <v>40.1</v>
+        <v>27.1</v>
       </c>
       <c r="F13" s="13">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="G13" s="19">
+        <v>30.4</v>
+      </c>
+      <c r="G13" s="22">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15">
+        <v>43.2</v>
+      </c>
+      <c r="I13" s="16">
         <v>44</v>
       </c>
-      <c r="H13" s="15">
-        <v>49.1</v>
-      </c>
-      <c r="I13" s="16">
-        <v>50.3</v>
-      </c>
       <c r="J13" s="17">
-        <v>52</v>
+        <v>43.4</v>
       </c>
       <c r="K13" s="15">
-        <v>50.8</v>
+        <v>45.8</v>
       </c>
       <c r="L13" s="15">
-        <v>59.7</v>
+        <v>72.3</v>
       </c>
       <c r="M13" s="15">
-        <v>47.8</v>
+        <v>41.6</v>
       </c>
       <c r="N13" s="26">
-        <v>46.4</v>
+        <v>38.5</v>
       </c>
       <c r="O13" s="26">
-        <v>52.1</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="P13" s="57">
-        <v>51</v>
+        <v>37.9</v>
       </c>
       <c r="Q13" s="57">
-        <v>44.5</v>
+        <v>35.6</v>
       </c>
       <c r="R13" s="57">
-        <v>38.926974664679584</v>
+        <v>27.236016839934702</v>
       </c>
       <c r="S13" s="60">
-        <v>33.139030137665877</v>
+        <v>36.667303251792568</v>
+      </c>
+      <c r="T13" s="60">
+        <v>40.06</v>
       </c>
       <c r="V13" s="18"/>
     </row>
     <row r="14" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="33" t="s">
-        <v>21</v>
+      <c r="A14" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="12">
-        <v>25.9</v>
+        <v>39.9</v>
       </c>
       <c r="E14" s="12">
-        <v>24.8</v>
+        <v>38.9</v>
       </c>
       <c r="F14" s="13">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G14" s="23">
-        <v>20.399999999999999</v>
+        <v>46.4</v>
+      </c>
+      <c r="G14" s="19">
+        <v>48.5</v>
       </c>
       <c r="H14" s="15">
-        <v>25.3</v>
+        <v>59.3</v>
       </c>
       <c r="I14" s="16">
-        <v>26</v>
+        <v>58.8</v>
       </c>
       <c r="J14" s="17">
-        <v>26.6</v>
+        <v>61</v>
       </c>
       <c r="K14" s="15">
-        <v>26.5</v>
+        <v>58.2</v>
       </c>
       <c r="L14" s="15">
-        <v>22.1</v>
+        <v>36.4</v>
       </c>
       <c r="M14" s="15">
-        <v>21.4</v>
+        <v>41.9</v>
       </c>
       <c r="N14" s="26">
-        <v>17.399999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="O14" s="26">
-        <v>24.3</v>
+        <v>37.1</v>
       </c>
       <c r="P14" s="57">
-        <v>28.9</v>
+        <v>34.1</v>
       </c>
       <c r="Q14" s="57">
-        <v>22.2</v>
+        <v>27.2</v>
       </c>
       <c r="R14" s="57">
-        <v>23.305151831797598</v>
-      </c>
-      <c r="S14" s="61">
-        <v>22.34784446322908</v>
+        <v>24.736924768336735</v>
+      </c>
+      <c r="S14" s="60">
+        <v>21.147798742138363</v>
+      </c>
+      <c r="T14" s="60">
+        <v>23.27</v>
       </c>
       <c r="V14" s="18"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="40">
-        <v>24.2</v>
-      </c>
-      <c r="E15" s="40">
-        <v>26</v>
-      </c>
-      <c r="F15" s="41">
-        <v>23.9</v>
-      </c>
-      <c r="G15" s="42">
-        <v>27</v>
-      </c>
-      <c r="H15" s="43">
-        <v>36.1</v>
-      </c>
-      <c r="I15" s="44">
-        <v>43.9</v>
-      </c>
-      <c r="J15" s="45">
-        <v>46.7</v>
-      </c>
-      <c r="K15" s="43">
-        <v>54.9</v>
-      </c>
-      <c r="L15" s="43">
-        <v>52.8</v>
-      </c>
-      <c r="M15" s="43">
-        <v>52.6</v>
-      </c>
-      <c r="N15" s="46">
-        <v>51.6</v>
-      </c>
-      <c r="O15" s="55">
-        <v>65</v>
-      </c>
-      <c r="P15" s="55">
-        <v>77</v>
-      </c>
-      <c r="Q15" s="55">
-        <v>63.7</v>
-      </c>
-      <c r="R15" s="55">
-        <v>69.352892024881626</v>
-      </c>
-      <c r="S15" s="62">
-        <v>51.037459963793346</v>
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12">
+        <v>38.4</v>
+      </c>
+      <c r="E15" s="12">
+        <v>40.1</v>
+      </c>
+      <c r="F15" s="13">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G15" s="19">
+        <v>44</v>
+      </c>
+      <c r="H15" s="15">
+        <v>49.1</v>
+      </c>
+      <c r="I15" s="16">
+        <v>50.3</v>
+      </c>
+      <c r="J15" s="17">
+        <v>52</v>
+      </c>
+      <c r="K15" s="15">
+        <v>50.8</v>
+      </c>
+      <c r="L15" s="15">
+        <v>59.7</v>
+      </c>
+      <c r="M15" s="15">
+        <v>47.8</v>
+      </c>
+      <c r="N15" s="26">
+        <v>46.4</v>
+      </c>
+      <c r="O15" s="26">
+        <v>52.1</v>
+      </c>
+      <c r="P15" s="57">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="57">
+        <v>44.5</v>
+      </c>
+      <c r="R15" s="57">
+        <v>38.926974664679584</v>
+      </c>
+      <c r="S15" s="60">
+        <v>33.139030137665877</v>
+      </c>
+      <c r="T15" s="60">
+        <v>30.23</v>
       </c>
       <c r="V15" s="18"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" ht="12">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="50"/>
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="12">
+        <v>25.9</v>
+      </c>
+      <c r="E16" s="12">
+        <v>24.8</v>
+      </c>
+      <c r="F16" s="13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G16" s="23">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H16" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="I16" s="16">
+        <v>26</v>
+      </c>
+      <c r="J16" s="17">
+        <v>26.6</v>
+      </c>
+      <c r="K16" s="15">
+        <v>26.5</v>
+      </c>
+      <c r="L16" s="15">
+        <v>22.1</v>
+      </c>
+      <c r="M16" s="15">
+        <v>21.4</v>
+      </c>
+      <c r="N16" s="26">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O16" s="26">
+        <v>24.3</v>
+      </c>
+      <c r="P16" s="57">
+        <v>28.9</v>
+      </c>
+      <c r="Q16" s="57">
+        <v>22.2</v>
+      </c>
+      <c r="R16" s="57">
+        <v>23.305151831797598</v>
+      </c>
+      <c r="S16" s="61">
+        <v>22.34784446322908</v>
+      </c>
+      <c r="T16" s="61">
+        <v>6.48</v>
+      </c>
+      <c r="V16" s="18"/>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+    <row r="17" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="40">
+        <v>24.2</v>
+      </c>
+      <c r="E17" s="40">
+        <v>26</v>
+      </c>
+      <c r="F17" s="41">
+        <v>23.9</v>
+      </c>
+      <c r="G17" s="42">
+        <v>27</v>
+      </c>
+      <c r="H17" s="43">
+        <v>36.1</v>
+      </c>
+      <c r="I17" s="44">
+        <v>43.9</v>
+      </c>
+      <c r="J17" s="45">
+        <v>46.7</v>
+      </c>
+      <c r="K17" s="43">
+        <v>54.9</v>
+      </c>
+      <c r="L17" s="43">
+        <v>52.8</v>
+      </c>
+      <c r="M17" s="43">
+        <v>52.6</v>
+      </c>
+      <c r="N17" s="46">
+        <v>51.6</v>
+      </c>
+      <c r="O17" s="55">
+        <v>65</v>
+      </c>
+      <c r="P17" s="55">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="55">
+        <v>63.7</v>
+      </c>
+      <c r="R17" s="55">
+        <v>69.352892024881626</v>
+      </c>
+      <c r="S17" s="62">
+        <v>51.037459963793346</v>
+      </c>
+      <c r="T17" s="62">
+        <v>30.85</v>
+      </c>
+      <c r="V17" s="18"/>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+    <row r="18" spans="1:22" s="3" customFormat="1" ht="12">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="50"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="1:22">
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="1:22">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="1:22">
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="1:22">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
     </row>
+    <row r="23" spans="1:22">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
